--- a/ProdFloor/wwwroot/resources/SpecialFeatures.xlsx
+++ b/ProdFloor/wwwroot/resources/SpecialFeatures.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Engineering\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eary.ortiz\Desktop\xmlsFromTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E00B70-8778-47BF-BFCA-4B81F6942C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="W4Hjv6aUeijbgF8WsLWQvMjmAT/+jD9VVX/mhMqgIJcD34n+79aNksVfUFGd4KXQwnMhZhSs8Xwcb4urfjHPDA==" workbookSaltValue="CpVAfuuamopNGmK2PuBNNw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Special Features" sheetId="1" r:id="rId1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
   <si>
     <t>TRAVEL CABLE</t>
   </si>
@@ -48,9 +50,6 @@
     <t>GUNN DOOR OPEN LIGHT</t>
   </si>
   <si>
-    <t>NORMAL POWER LIGHT</t>
-  </si>
-  <si>
     <t>BATTERY LOWERING LIGHT</t>
   </si>
   <si>
@@ -204,9 +203,6 @@
     <t>Brownout Protection</t>
   </si>
   <si>
-    <t>Elevator IS NOT running on battery indicator light</t>
-  </si>
-  <si>
     <t>Elevator IS running on battery indicator light</t>
   </si>
   <si>
@@ -219,9 +215,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Special Features for HMC-2000</t>
-  </si>
-  <si>
     <t>GFCI</t>
   </si>
   <si>
@@ -234,9 +227,6 @@
     <t>GFCI outlet in controller</t>
   </si>
   <si>
-    <t>Lighting fixture in  controller</t>
-  </si>
-  <si>
     <t>GFCI outlet and Lighting fixture in controller</t>
   </si>
   <si>
@@ -250,9 +240,6 @@
   </si>
   <si>
     <t>HAPS INTERFACE</t>
-  </si>
-  <si>
-    <t>DEUM PI</t>
   </si>
   <si>
     <t>TOUCHSAFE</t>
@@ -307,12 +294,6 @@
     <t>Priority Service</t>
   </si>
   <si>
-    <t>TFT760 PI</t>
-  </si>
-  <si>
-    <t>Vega's TFT760 Position Indicators</t>
-  </si>
-  <si>
     <t>NO FIRE SERVICE</t>
   </si>
   <si>
@@ -322,9 +303,6 @@
     <t>SHUNT TRIP</t>
   </si>
   <si>
-    <t>Shun Trip delay circuit</t>
-  </si>
-  <si>
     <t>CLOUD MONITORING</t>
   </si>
   <si>
@@ -464,12 +442,45 @@
   </si>
   <si>
     <t>CLEANING SERVICE</t>
+  </si>
+  <si>
+    <t>HIGH SCCR</t>
+  </si>
+  <si>
+    <t>Controller has a high SSCR (Short Circuit Current Rating) (i.e &gt;10kA)</t>
+  </si>
+  <si>
+    <t>EXERCISE OPERATION</t>
+  </si>
+  <si>
+    <t>Controller has exercise operation feature</t>
+  </si>
+  <si>
+    <t>Current Special Features for HMC-2000</t>
+  </si>
+  <si>
+    <t>Lighting fixture in controller</t>
+  </si>
+  <si>
+    <t>SHUNT TRIP DELAY (cambiar el special feature de varios trabajos que tienen el SHUNT TRIP a SHUNT TRIP DELAY, uniendo los 2)</t>
+  </si>
+  <si>
+    <t>TOUCHLESS COP</t>
+  </si>
+  <si>
+    <t>TOUCHLESS HALL</t>
+  </si>
+  <si>
+    <t>Controller has touchless COP buttons</t>
+  </si>
+  <si>
+    <t>Controller has touchless hall buttons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -693,13 +704,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,12 +740,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,11 +1066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,430 +1080,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B62" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iTx5P9J4B5bYs2xxGplTY5gBM1tH0FlnFTC4vD0S0lkIBQN+rC8sQQtdF84JgdkfB8HRYHYVj8ccHM6F3BnA/Q==" saltValue="i7Kdw7+Aja41uL+9jiUP+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState ref="A4:B48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B48">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="1">
@@ -1483,11 +1654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,374 +1668,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>94</v>
+      <c r="A4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>96</v>
+      <c r="A5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>133</v>
+      <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>134</v>
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProdFloor/wwwroot/resources/SpecialFeatures.xlsx
+++ b/ProdFloor/wwwroot/resources/SpecialFeatures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eary.ortiz\Desktop\xmlsFromTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eary.ortiz\Documents\GitHub\ProodFloorCSharpp\ProdFloor\wwwroot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E00B70-8778-47BF-BFCA-4B81F6942C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F4767-72A2-4E10-81D9-0C9DC367BA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="W4Hjv6aUeijbgF8WsLWQvMjmAT/+jD9VVX/mhMqgIJcD34n+79aNksVfUFGd4KXQwnMhZhSs8Xwcb4urfjHPDA==" workbookSaltValue="CpVAfuuamopNGmK2PuBNNw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -745,14 +745,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,10 +1080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -1565,63 +1565,63 @@
       <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="A70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="A71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -1668,10 +1668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -1806,10 +1806,10 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -1860,10 +1860,10 @@
       <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
